--- a/Practical_18.xlsx
+++ b/Practical_18.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="What-if Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="Forecasting a model" sheetId="2" r:id="rId2"/>
+    <sheet name="Forecast Graph" sheetId="4" r:id="rId2"/>
+    <sheet name="Forecasting a model" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Datesheet1">'Forecasting a model'!$A$3:$A$32</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Input</t>
   </si>
@@ -77,6 +78,15 @@
     <t>Seasonality</t>
   </si>
   <si>
+    <t>Forecast(Units Sold)</t>
+  </si>
+  <si>
+    <t>Lower Confidence Bound(Units Sold)</t>
+  </si>
+  <si>
+    <t>Upper Confidence Bound(Units Sold)</t>
+  </si>
+  <si>
     <t>Confidence</t>
   </si>
   <si>
@@ -84,6 +94,9 @@
   </si>
   <si>
     <t>Lower Bound</t>
+  </si>
+  <si>
+    <t>Statistics</t>
   </si>
 </sst>
 </file>
@@ -163,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -180,12 +193,28 @@
     <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -196,6 +225,1830 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Forecast Graph'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Units Sold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Forecast Graph'!$B$2:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BB7-4B97-96FB-A59081F76142}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Forecast Graph'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast(Units Sold)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Forecast Graph'!$A$2:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>mmm-yy</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Forecast Graph'!$C$2:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="29">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>618.13497413547179</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>721.41140774492385</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>672.07153265372881</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2110.7489128081706</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2510.2616782154373</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3213.921888255918</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>659.54647138108385</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>525.78655473268964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>760.15367462231256</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>652.91946295581147</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>593.62948051734099</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>577.32001344493119</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>616.05135681191678</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>719.32779042136883</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>669.98791533017379</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2108.6652954846154</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2508.1780608918821</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3211.8382709323632</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>657.46285405752883</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>523.70293740913462</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>758.07005729875755</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>650.83584563225645</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>591.54586319378598</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>575.23639612137617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BB7-4B97-96FB-A59081F76142}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Forecast Graph'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower Confidence Bound(Units Sold)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Forecast Graph'!$A$2:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>mmm-yy</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Forecast Graph'!$D$2:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>477.93621390813547</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>580.08653721073131</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>529.61186153490098</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>1967.14581997239</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>2365.5066110397329</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00">
+                  <c:v>3068.0063619751554</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>512.46206842266577</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>377.52492403899146</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>610.70653096229682</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>502.2785862271906</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>441.78671504058275</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>424.26726725033052</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>461.76295559531286</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00">
+                  <c:v>563.81355190205295</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00">
+                  <c:v>513.23993303795874</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>1950.6757237633328</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00">
+                  <c:v>2348.9391141683859</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00">
+                  <c:v>3051.3422229845464</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>495.70203728215097</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>360.66974209020111</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>593.75693087714399</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>485.23529197722496</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>424.65044187699334</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>407.03872169393304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0BB7-4B97-96FB-A59081F76142}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Forecast Graph'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper Confidence Bound(Units Sold)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Forecast Graph'!$A$2:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>mmm-yy</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Forecast Graph'!$E$2:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>758.33373436280817</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>862.73627827911639</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>814.53120377255664</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>2254.3520056439511</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>2655.0167453911417</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00">
+                  <c:v>3359.8374145366806</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00">
+                  <c:v>806.63087433950193</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>674.04818542638782</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>909.60081828232831</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>803.56033968443239</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>745.47224599409924</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>730.37275963953186</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00">
+                  <c:v>770.33975802852069</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00">
+                  <c:v>874.84202894068471</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00">
+                  <c:v>826.73589762238885</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>2266.654867205898</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00">
+                  <c:v>2667.4170076153782</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00">
+                  <c:v>3372.33431888018</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>819.22367083290669</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>686.73613272806813</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>922.38318372037111</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>816.43639928728794</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>758.44128451057861</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>743.43407054881936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0BB7-4B97-96FB-A59081F76142}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1159135823"/>
+        <c:axId val="1159138319"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1159135823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1159138319"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1159138319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1159135823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E55" totalsRowShown="0">
+  <autoFilter ref="A1:E55"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" name="Units Sold"/>
+    <tableColumn id="3" name="Forecast(Units Sold)" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.FORECAST.ETS(A2,$B$2:$B$31,$A$2:$A$31,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Lower Confidence Bound(Units Sold)" dataDxfId="1">
+      <calculatedColumnFormula>C2-_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Upper Confidence Bound(Units Sold)" dataDxfId="0">
+      <calculatedColumnFormula>C2+_xlfn.FORECAST.ETS.CONFINT(A2,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,10 +2731,709 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F43"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>42005</v>
+      </c>
+      <c r="B2" s="11">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>42036</v>
+      </c>
+      <c r="B3" s="11">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>42064</v>
+      </c>
+      <c r="B4" s="11">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>42095</v>
+      </c>
+      <c r="B5" s="11">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>42125</v>
+      </c>
+      <c r="B6" s="11">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>42156</v>
+      </c>
+      <c r="B7" s="11">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>42186</v>
+      </c>
+      <c r="B8" s="11">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>42217</v>
+      </c>
+      <c r="B9" s="11">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>42248</v>
+      </c>
+      <c r="B10" s="11">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>42278</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>42309</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>42339</v>
+      </c>
+      <c r="B13" s="11">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>42370</v>
+      </c>
+      <c r="B14" s="11">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>42401</v>
+      </c>
+      <c r="B15" s="11">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>42430</v>
+      </c>
+      <c r="B16" s="11">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>42461</v>
+      </c>
+      <c r="B17" s="11">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>42491</v>
+      </c>
+      <c r="B18" s="11">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>42522</v>
+      </c>
+      <c r="B19" s="11">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>42552</v>
+      </c>
+      <c r="B20" s="11">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>42583</v>
+      </c>
+      <c r="B21" s="11">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>42614</v>
+      </c>
+      <c r="B22" s="11">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>42644</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>42675</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>42705</v>
+      </c>
+      <c r="B25" s="11">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="11">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>42767</v>
+      </c>
+      <c r="B27" s="11">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>42795</v>
+      </c>
+      <c r="B28" s="11">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>42826</v>
+      </c>
+      <c r="B29" s="11">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>42856</v>
+      </c>
+      <c r="B30" s="11">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>42887</v>
+      </c>
+      <c r="B31" s="11">
+        <v>604</v>
+      </c>
+      <c r="C31" s="11">
+        <v>604</v>
+      </c>
+      <c r="D31" s="12">
+        <v>604</v>
+      </c>
+      <c r="E31" s="12">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>42917</v>
+      </c>
+      <c r="C32" s="11">
+        <f>_xlfn.FORECAST.ETS(A32,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>618.13497413547179</v>
+      </c>
+      <c r="D32" s="12">
+        <f>C32-_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>477.93621390813547</v>
+      </c>
+      <c r="E32" s="12">
+        <f>C32+_xlfn.FORECAST.ETS.CONFINT(A32,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>758.33373436280817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>42948</v>
+      </c>
+      <c r="C33" s="11">
+        <f>_xlfn.FORECAST.ETS(A33,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>721.41140774492385</v>
+      </c>
+      <c r="D33" s="12">
+        <f>C33-_xlfn.FORECAST.ETS.CONFINT(A33,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>580.08653721073131</v>
+      </c>
+      <c r="E33" s="12">
+        <f>C33+_xlfn.FORECAST.ETS.CONFINT(A33,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>862.73627827911639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>42979</v>
+      </c>
+      <c r="C34" s="11">
+        <f>_xlfn.FORECAST.ETS(A34,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>672.07153265372881</v>
+      </c>
+      <c r="D34" s="12">
+        <f>C34-_xlfn.FORECAST.ETS.CONFINT(A34,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>529.61186153490098</v>
+      </c>
+      <c r="E34" s="12">
+        <f>C34+_xlfn.FORECAST.ETS.CONFINT(A34,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>814.53120377255664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>43009</v>
+      </c>
+      <c r="C35" s="11">
+        <f>_xlfn.FORECAST.ETS(A35,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>2110.7489128081706</v>
+      </c>
+      <c r="D35" s="12">
+        <f>C35-_xlfn.FORECAST.ETS.CONFINT(A35,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>1967.14581997239</v>
+      </c>
+      <c r="E35" s="12">
+        <f>C35+_xlfn.FORECAST.ETS.CONFINT(A35,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>2254.3520056439511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>43040</v>
+      </c>
+      <c r="C36" s="11">
+        <f>_xlfn.FORECAST.ETS(A36,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>2510.2616782154373</v>
+      </c>
+      <c r="D36" s="12">
+        <f>C36-_xlfn.FORECAST.ETS.CONFINT(A36,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>2365.5066110397329</v>
+      </c>
+      <c r="E36" s="12">
+        <f>C36+_xlfn.FORECAST.ETS.CONFINT(A36,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>2655.0167453911417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>43070</v>
+      </c>
+      <c r="C37" s="11">
+        <f>_xlfn.FORECAST.ETS(A37,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>3213.921888255918</v>
+      </c>
+      <c r="D37" s="12">
+        <f>C37-_xlfn.FORECAST.ETS.CONFINT(A37,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>3068.0063619751554</v>
+      </c>
+      <c r="E37" s="12">
+        <f>C37+_xlfn.FORECAST.ETS.CONFINT(A37,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>3359.8374145366806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>43101</v>
+      </c>
+      <c r="C38" s="11">
+        <f>_xlfn.FORECAST.ETS(A38,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>659.54647138108385</v>
+      </c>
+      <c r="D38" s="12">
+        <f>C38-_xlfn.FORECAST.ETS.CONFINT(A38,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>512.46206842266577</v>
+      </c>
+      <c r="E38" s="12">
+        <f>C38+_xlfn.FORECAST.ETS.CONFINT(A38,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>806.63087433950193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>43132</v>
+      </c>
+      <c r="C39" s="11">
+        <f>_xlfn.FORECAST.ETS(A39,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>525.78655473268964</v>
+      </c>
+      <c r="D39" s="12">
+        <f>C39-_xlfn.FORECAST.ETS.CONFINT(A39,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>377.52492403899146</v>
+      </c>
+      <c r="E39" s="12">
+        <f>C39+_xlfn.FORECAST.ETS.CONFINT(A39,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>674.04818542638782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>43160</v>
+      </c>
+      <c r="C40" s="11">
+        <f>_xlfn.FORECAST.ETS(A40,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>760.15367462231256</v>
+      </c>
+      <c r="D40" s="12">
+        <f>C40-_xlfn.FORECAST.ETS.CONFINT(A40,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>610.70653096229682</v>
+      </c>
+      <c r="E40" s="12">
+        <f>C40+_xlfn.FORECAST.ETS.CONFINT(A40,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>909.60081828232831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>43191</v>
+      </c>
+      <c r="C41" s="11">
+        <f>_xlfn.FORECAST.ETS(A41,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>652.91946295581147</v>
+      </c>
+      <c r="D41" s="12">
+        <f>C41-_xlfn.FORECAST.ETS.CONFINT(A41,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>502.2785862271906</v>
+      </c>
+      <c r="E41" s="12">
+        <f>C41+_xlfn.FORECAST.ETS.CONFINT(A41,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>803.56033968443239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>43221</v>
+      </c>
+      <c r="C42" s="11">
+        <f>_xlfn.FORECAST.ETS(A42,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>593.62948051734099</v>
+      </c>
+      <c r="D42" s="12">
+        <f>C42-_xlfn.FORECAST.ETS.CONFINT(A42,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>441.78671504058275</v>
+      </c>
+      <c r="E42" s="12">
+        <f>C42+_xlfn.FORECAST.ETS.CONFINT(A42,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>745.47224599409924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>43252</v>
+      </c>
+      <c r="C43" s="11">
+        <f>_xlfn.FORECAST.ETS(A43,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>577.32001344493119</v>
+      </c>
+      <c r="D43" s="12">
+        <f>C43-_xlfn.FORECAST.ETS.CONFINT(A43,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>424.26726725033052</v>
+      </c>
+      <c r="E43" s="12">
+        <f>C43+_xlfn.FORECAST.ETS.CONFINT(A43,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>730.37275963953186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>43282</v>
+      </c>
+      <c r="C44" s="11">
+        <f>_xlfn.FORECAST.ETS(A44,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>616.05135681191678</v>
+      </c>
+      <c r="D44" s="12">
+        <f>C44-_xlfn.FORECAST.ETS.CONFINT(A44,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>461.76295559531286</v>
+      </c>
+      <c r="E44" s="12">
+        <f>C44+_xlfn.FORECAST.ETS.CONFINT(A44,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>770.33975802852069</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>43313</v>
+      </c>
+      <c r="C45" s="11">
+        <f>_xlfn.FORECAST.ETS(A45,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>719.32779042136883</v>
+      </c>
+      <c r="D45" s="12">
+        <f>C45-_xlfn.FORECAST.ETS.CONFINT(A45,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>563.81355190205295</v>
+      </c>
+      <c r="E45" s="12">
+        <f>C45+_xlfn.FORECAST.ETS.CONFINT(A45,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>874.84202894068471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>43344</v>
+      </c>
+      <c r="C46" s="11">
+        <f>_xlfn.FORECAST.ETS(A46,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>669.98791533017379</v>
+      </c>
+      <c r="D46" s="12">
+        <f>C46-_xlfn.FORECAST.ETS.CONFINT(A46,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>513.23993303795874</v>
+      </c>
+      <c r="E46" s="12">
+        <f>C46+_xlfn.FORECAST.ETS.CONFINT(A46,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>826.73589762238885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>43374</v>
+      </c>
+      <c r="C47" s="11">
+        <f>_xlfn.FORECAST.ETS(A47,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>2108.6652954846154</v>
+      </c>
+      <c r="D47" s="12">
+        <f>C47-_xlfn.FORECAST.ETS.CONFINT(A47,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>1950.6757237633328</v>
+      </c>
+      <c r="E47" s="12">
+        <f>C47+_xlfn.FORECAST.ETS.CONFINT(A47,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>2266.654867205898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>43405</v>
+      </c>
+      <c r="C48" s="11">
+        <f>_xlfn.FORECAST.ETS(A48,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>2508.1780608918821</v>
+      </c>
+      <c r="D48" s="12">
+        <f>C48-_xlfn.FORECAST.ETS.CONFINT(A48,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>2348.9391141683859</v>
+      </c>
+      <c r="E48" s="12">
+        <f>C48+_xlfn.FORECAST.ETS.CONFINT(A48,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>2667.4170076153782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>43435</v>
+      </c>
+      <c r="C49" s="11">
+        <f>_xlfn.FORECAST.ETS(A49,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>3211.8382709323632</v>
+      </c>
+      <c r="D49" s="12">
+        <f>C49-_xlfn.FORECAST.ETS.CONFINT(A49,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>3051.3422229845464</v>
+      </c>
+      <c r="E49" s="12">
+        <f>C49+_xlfn.FORECAST.ETS.CONFINT(A49,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>3372.33431888018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>43466</v>
+      </c>
+      <c r="C50" s="11">
+        <f>_xlfn.FORECAST.ETS(A50,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>657.46285405752883</v>
+      </c>
+      <c r="D50" s="12">
+        <f>C50-_xlfn.FORECAST.ETS.CONFINT(A50,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>495.70203728215097</v>
+      </c>
+      <c r="E50" s="12">
+        <f>C50+_xlfn.FORECAST.ETS.CONFINT(A50,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>819.22367083290669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>43497</v>
+      </c>
+      <c r="C51" s="11">
+        <f>_xlfn.FORECAST.ETS(A51,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>523.70293740913462</v>
+      </c>
+      <c r="D51" s="12">
+        <f>C51-_xlfn.FORECAST.ETS.CONFINT(A51,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>360.66974209020111</v>
+      </c>
+      <c r="E51" s="12">
+        <f>C51+_xlfn.FORECAST.ETS.CONFINT(A51,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>686.73613272806813</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>43525</v>
+      </c>
+      <c r="C52" s="11">
+        <f>_xlfn.FORECAST.ETS(A52,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>758.07005729875755</v>
+      </c>
+      <c r="D52" s="12">
+        <f>C52-_xlfn.FORECAST.ETS.CONFINT(A52,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>593.75693087714399</v>
+      </c>
+      <c r="E52" s="12">
+        <f>C52+_xlfn.FORECAST.ETS.CONFINT(A52,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>922.38318372037111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>43556</v>
+      </c>
+      <c r="C53" s="11">
+        <f>_xlfn.FORECAST.ETS(A53,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>650.83584563225645</v>
+      </c>
+      <c r="D53" s="12">
+        <f>C53-_xlfn.FORECAST.ETS.CONFINT(A53,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>485.23529197722496</v>
+      </c>
+      <c r="E53" s="12">
+        <f>C53+_xlfn.FORECAST.ETS.CONFINT(A53,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>816.43639928728794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>43586</v>
+      </c>
+      <c r="C54" s="11">
+        <f>_xlfn.FORECAST.ETS(A54,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>591.54586319378598</v>
+      </c>
+      <c r="D54" s="12">
+        <f>C54-_xlfn.FORECAST.ETS.CONFINT(A54,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>424.65044187699334</v>
+      </c>
+      <c r="E54" s="12">
+        <f>C54+_xlfn.FORECAST.ETS.CONFINT(A54,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>758.44128451057861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>43617</v>
+      </c>
+      <c r="C55" s="11">
+        <f>_xlfn.FORECAST.ETS(A55,$B$2:$B$31,$A$2:$A$31,1,1)</f>
+        <v>575.23639612137617</v>
+      </c>
+      <c r="D55" s="12">
+        <f>C55-_xlfn.FORECAST.ETS.CONFINT(A55,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>407.03872169393304</v>
+      </c>
+      <c r="E55" s="12">
+        <f>C55+_xlfn.FORECAST.ETS.CONFINT(A55,$B$2:$B$31,$A$2:$A$31,0.95,1,1)</f>
+        <v>743.43407054881936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,11 +3460,11 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>780</v>
+        <v>503</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>710</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,11 +3473,11 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:C32" ca="1" si="0">RANDBETWEEN(500,800)</f>
-        <v>654</v>
+        <v>788</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>623</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,11 +3486,11 @@
       </c>
       <c r="B5">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>735</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,11 +3499,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>738</v>
+        <v>585</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>692</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,11 +3512,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>512</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,11 +3525,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,11 +3538,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>614</v>
+        <v>526</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,11 +3551,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1012,11 +3564,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>688</v>
+        <v>586</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>702</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,7 +3577,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="C12">
         <v>2100</v>
@@ -1037,7 +3589,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>699</v>
+        <v>524</v>
       </c>
       <c r="C13">
         <v>2500</v>
@@ -1049,7 +3601,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>519</v>
+        <v>799</v>
       </c>
       <c r="C14">
         <v>3200</v>
@@ -1061,11 +3613,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>712</v>
+        <v>627</v>
       </c>
       <c r="C15">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>646</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,11 +3626,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>585</v>
+        <v>789</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>512</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,11 +3639,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>630</v>
+        <v>758</v>
       </c>
       <c r="C17">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>747</v>
+        <v>713</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,11 +3652,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>573</v>
+        <v>687</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>640</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,11 +3665,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>683</v>
+        <v>645</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>581</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,11 +3678,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>573</v>
+        <v>513</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>509</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,11 +3691,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>725</v>
+        <v>601</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>604</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,11 +3704,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>587</v>
+        <v>775</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>763</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1165,11 +3717,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>671</v>
+        <v>735</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>622</v>
+        <v>762</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,7 +3730,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C24">
         <v>2100</v>
@@ -1190,7 +3742,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>608</v>
+        <v>725</v>
       </c>
       <c r="C25">
         <v>2500</v>
@@ -1202,7 +3754,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>531</v>
+        <v>725</v>
       </c>
       <c r="C26">
         <v>3200</v>
@@ -1214,11 +3766,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="C27">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>503</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,11 +3779,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>513</v>
+        <v>666</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>777</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,11 +3792,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="C29">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>777</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,11 +3805,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,11 +3818,11 @@
       </c>
       <c r="B31">
         <f ca="1">RANDBETWEEN(500,800)</f>
-        <v>666</v>
+        <v>784</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>594</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,11 +3831,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>604</v>
+        <v>762</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,13 +3846,13 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,23 +3861,23 @@
       </c>
       <c r="B35" s="8">
         <f ca="1">_xlfn.FORECAST.LINEAR(A35,Units_Sold,Datesheet1)</f>
-        <v>578.00396871717021</v>
+        <v>675.40576117232399</v>
       </c>
       <c r="C35">
         <f>_xlfn.FORECAST.ETS(A35,$C$3:$C$32,Datesheet1)</f>
         <v>580.04908929990665</v>
       </c>
-      <c r="D35" s="10">
-        <f ca="1">_xlfn.FORECAST.ETS.CONFINT(A35,Units_Sold,Datesheet1)</f>
-        <v>168.86480981080891</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="13">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A35,Units_Sold,Datesheet1)</f>
+        <v>170.90517313045359</v>
+      </c>
+      <c r="E35" s="13">
         <f ca="1">D35+B35</f>
-        <v>746.86877852797909</v>
-      </c>
-      <c r="F35" s="10">
+        <v>846.31093430277758</v>
+      </c>
+      <c r="F35" s="13">
         <f ca="1">B35-D35</f>
-        <v>409.13915890636133</v>
+        <v>504.5005880418704</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1334,23 +3886,23 @@
       </c>
       <c r="B36" s="8">
         <f ca="1">_xlfn.FORECAST.LINEAR(A36,Units_Sold,Datesheet1)</f>
-        <v>574.72595293638005</v>
+        <v>677.28977884865276</v>
       </c>
       <c r="C36">
         <f>_xlfn.FORECAST.ETS(A36,$C$3:$C$32,Datesheet1)</f>
         <v>626.91279374010378</v>
       </c>
-      <c r="D36" s="10">
-        <f ca="1">_xlfn.FORECAST.ETS.CONFINT(A36,Units_Sold,Datesheet1)</f>
-        <v>174.10289463213533</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="13">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A36,Units_Sold,Datesheet1)</f>
+        <v>170.90594220200225</v>
+      </c>
+      <c r="E36" s="13">
         <f t="shared" ref="E36:E40" ca="1" si="1">D36+B36</f>
-        <v>748.82884756851536</v>
-      </c>
-      <c r="F36" s="10">
+        <v>848.19572105065504</v>
+      </c>
+      <c r="F36" s="13">
         <f t="shared" ref="F36:F40" ca="1" si="2">B36-D36</f>
-        <v>400.62305830424475</v>
+        <v>506.38383664665048</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1359,23 +3911,23 @@
       </c>
       <c r="B37" s="8">
         <f ca="1">_xlfn.FORECAST.LINEAR(A37,Units_Sold,Datesheet1)</f>
-        <v>571.4479371555899</v>
+        <v>679.17379652498153</v>
       </c>
       <c r="C37">
         <f>_xlfn.FORECAST.ETS(A37,$C$3:$C$32,Datesheet1)</f>
         <v>579.96237070914742</v>
       </c>
-      <c r="D37" s="10">
-        <f ca="1">_xlfn.FORECAST.ETS.CONFINT(A37,Units_Sold,Datesheet1)</f>
-        <v>179.22794161096752</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D37" s="13">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A37,Units_Sold,Datesheet1)</f>
+        <v>170.9073094317659</v>
+      </c>
+      <c r="E37" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>750.67587876655739</v>
-      </c>
-      <c r="F37" s="10">
+        <v>850.08110595674748</v>
+      </c>
+      <c r="F37" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>392.21999554462241</v>
+        <v>508.26648709321563</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,23 +3936,23 @@
       </c>
       <c r="B38" s="8">
         <f ca="1">_xlfn.FORECAST.LINEAR(A38,Units_Sold,Datesheet1)</f>
-        <v>568.27566381934139</v>
+        <v>680.99703943755799</v>
       </c>
       <c r="C38">
         <f>_xlfn.FORECAST.ETS(A38,$C$3:$C$32,Datesheet1)</f>
         <v>2054.860420195625</v>
       </c>
-      <c r="D38" s="10">
-        <f ca="1">_xlfn.FORECAST.ETS.CONFINT(A38,Units_Sold,Datesheet1)</f>
-        <v>184.24953847306244</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D38" s="13">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A38,Units_Sold,Datesheet1)</f>
+        <v>170.90944570637532</v>
+      </c>
+      <c r="E38" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>752.52520229240383</v>
-      </c>
-      <c r="F38" s="10">
+        <v>851.90648514393331</v>
+      </c>
+      <c r="F38" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>384.02612534627895</v>
+        <v>510.08759373118266</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,23 +3961,23 @@
       </c>
       <c r="B39" s="8">
         <f ca="1">_xlfn.FORECAST.LINEAR(A39,Units_Sold,Datesheet1)</f>
-        <v>564.99764803855123</v>
+        <v>682.88105711388675</v>
       </c>
       <c r="C39">
         <f>_xlfn.FORECAST.ETS(A39,$C$3:$C$32,Datesheet1)</f>
         <v>2458.8382178951979</v>
       </c>
-      <c r="D39" s="10">
-        <f ca="1">_xlfn.FORECAST.ETS.CONFINT(A39,Units_Sold,Datesheet1)</f>
-        <v>189.1760742542059</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="D39" s="13">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A39,Units_Sold,Datesheet1)</f>
+        <v>170.91252189490316</v>
+      </c>
+      <c r="E39" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>754.17372229275713</v>
-      </c>
-      <c r="F39" s="10">
+        <v>853.79357900878995</v>
+      </c>
+      <c r="F39" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>375.82157378434533</v>
+        <v>511.96853521898356</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1434,23 +3986,23 @@
       </c>
       <c r="B40" s="8">
         <f ca="1">_xlfn.FORECAST.LINEAR(A40,Units_Sold,Datesheet1)</f>
-        <v>561.82537470230272</v>
+        <v>684.70430002646322</v>
       </c>
       <c r="C40">
         <f>_xlfn.FORECAST.ETS(A40,$C$3:$C$32,Datesheet1)</f>
         <v>3154.4588482585564</v>
       </c>
-      <c r="D40" s="10">
-        <f ca="1">_xlfn.FORECAST.ETS.CONFINT(A40,Units_Sold,Datesheet1)</f>
-        <v>194.01493760234357</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="13">
+        <f>_xlfn.FORECAST.ETS.CONFINT(A40,Units_Sold,Datesheet1)</f>
+        <v>170.91670884032283</v>
+      </c>
+      <c r="E40" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>755.84031230464632</v>
-      </c>
-      <c r="F40" s="10">
+        <v>855.62100886678604</v>
+      </c>
+      <c r="F40" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>367.81043709995913</v>
+        <v>513.78759118614039</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1458,8 +4010,17 @@
         <v>16</v>
       </c>
       <c r="B43">
-        <f ca="1">_xlfn.FORECAST.ETS.SEASONALITY(C3:C32,Datesheet1)</f>
+        <f>_xlfn.FORECAST.ETS.SEASONALITY(C3:C32,Datesheet1)</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <f ca="1">_xlfn.FORECAST.ETS.STAT(Units_Sold,Datesheet1,4)</f>
+        <v>0.46678940700648169</v>
       </c>
     </row>
   </sheetData>
